--- a/results_processing/hive_results.xlsx
+++ b/results_processing/hive_results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="37">
   <si>
     <t>wins</t>
   </si>
@@ -71,6 +71,9 @@
     <t>mctsstrategy1000(greedyhive_strategy)</t>
   </si>
   <si>
+    <t>mcts1000</t>
+  </si>
+  <si>
     <t>mctsrave1000</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
     <t>0-0-0</t>
   </si>
   <si>
+    <t>0-0-1</t>
+  </si>
+  <si>
     <t>1-4-0</t>
   </si>
   <si>
@@ -110,10 +116,13 @@
     <t>5-0-0</t>
   </si>
   <si>
-    <t>0-0-2</t>
-  </si>
-  <si>
-    <t>0-0-1</t>
+    <t>2-0-0</t>
+  </si>
+  <si>
+    <t>3-0-0</t>
+  </si>
+  <si>
+    <t>0-1-3</t>
   </si>
   <si>
     <t>0-0-3</t>
@@ -474,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2">
         <v>42</v>
@@ -520,19 +529,19 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F2">
-        <v>52.22222222222223</v>
+        <v>52.74725274725275</v>
       </c>
       <c r="G2">
-        <v>46.66666666666666</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="H2">
-        <v>1.111111111111111</v>
+        <v>1.098901098901099</v>
       </c>
       <c r="I2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -543,25 +552,25 @@
         <v>45</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>67</v>
+        <v>67.5</v>
       </c>
       <c r="F3">
-        <v>48.91304347826087</v>
+        <v>47.87234042553192</v>
       </c>
       <c r="G3">
-        <v>47.82608695652174</v>
+        <v>47.87234042553192</v>
       </c>
       <c r="H3">
-        <v>3.260869565217391</v>
+        <v>4.25531914893617</v>
       </c>
       <c r="I3">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -633,7 +642,7 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>44.5</v>
@@ -642,13 +651,13 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>96.73913043478261</v>
+        <v>95.6989247311828</v>
       </c>
       <c r="H6">
-        <v>3.260869565217391</v>
+        <v>4.301075268817205</v>
       </c>
       <c r="I6">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -662,22 +671,22 @@
         <v>17</v>
       </c>
       <c r="D7">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E7">
         <v>28.5</v>
       </c>
       <c r="F7">
-        <v>22.72727272727273</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="G7">
-        <v>19.31818181818182</v>
+        <v>17.89473684210526</v>
       </c>
       <c r="H7">
-        <v>57.95454545454546</v>
+        <v>61.05263157894737</v>
       </c>
       <c r="I7">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -691,22 +700,22 @@
         <v>17</v>
       </c>
       <c r="D8">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E8">
         <v>28.5</v>
       </c>
       <c r="F8">
-        <v>22.47191011235955</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="G8">
-        <v>19.10112359550562</v>
+        <v>17.89473684210526</v>
       </c>
       <c r="H8">
-        <v>58.42696629213483</v>
+        <v>61.05263157894737</v>
       </c>
       <c r="I8">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -720,22 +729,22 @@
         <v>17</v>
       </c>
       <c r="D9">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E9">
         <v>28.5</v>
       </c>
       <c r="F9">
-        <v>21.73913043478261</v>
+        <v>20.83333333333334</v>
       </c>
       <c r="G9">
-        <v>18.47826086956522</v>
+        <v>17.70833333333334</v>
       </c>
       <c r="H9">
-        <v>59.78260869565217</v>
+        <v>61.45833333333334</v>
       </c>
       <c r="I9">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -749,22 +758,22 @@
         <v>17</v>
       </c>
       <c r="D10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E10">
         <v>19.5</v>
       </c>
       <c r="F10">
-        <v>13.25301204819277</v>
+        <v>12.79069767441861</v>
       </c>
       <c r="G10">
-        <v>20.48192771084337</v>
+        <v>19.76744186046512</v>
       </c>
       <c r="H10">
-        <v>66.26506024096386</v>
+        <v>67.44186046511628</v>
       </c>
       <c r="I10">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -772,28 +781,28 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13</v>
+        <v>18.5</v>
       </c>
       <c r="F11">
-        <v>100</v>
+        <v>94.73684210526315</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -801,7 +810,7 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -810,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F12">
         <v>100</v>
@@ -822,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -830,27 +839,56 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F13">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
         <v>0</v>
       </c>
-      <c r="I13">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>1</v>
       </c>
     </row>
@@ -861,13 +899,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -904,497 +942,580 @@
       <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" t="s">
-        <v>32</v>
-      </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>25</v>
+      </c>
+      <c r="N5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>25</v>
+      </c>
+      <c r="N6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>25</v>
+      </c>
+      <c r="N7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>25</v>
+      </c>
+      <c r="N8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>25</v>
+      </c>
+      <c r="N9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>25</v>
+      </c>
+      <c r="N10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>25</v>
+      </c>
+      <c r="N11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>25</v>
+      </c>
+      <c r="N12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J13" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="K13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M13" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="N13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
